--- a/excel/protocol/ishod.xlsx
+++ b/excel/protocol/ishod.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="171">
   <si>
     <t>Протокол проверки знаний № ________</t>
   </si>
@@ -53,21 +53,12 @@
     <t>Фисенко Степан Витальевич</t>
   </si>
   <si>
-    <t>Место работы</t>
-  </si>
-  <si>
     <t>Оперативная служба</t>
   </si>
   <si>
-    <t>Должность</t>
-  </si>
-  <si>
     <t>Дежурный электромонтер главного щита управления</t>
   </si>
   <si>
-    <t>Дата предыдущей проверки</t>
-  </si>
-  <si>
     <t>Результаты проверки  выше перечисленных стандартов:</t>
   </si>
   <si>
@@ -77,9 +68,6 @@
     <t>Заключение комиссии:</t>
   </si>
   <si>
-    <t>Группа по электробезопасности</t>
-  </si>
-  <si>
     <t>четвертая</t>
   </si>
   <si>
@@ -89,24 +77,6 @@
     <t>С заключением комиссии ознакомлен</t>
   </si>
   <si>
-    <t>Оценка</t>
-  </si>
-  <si>
-    <t>заместитель главного инженера по эксплуатации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">начальник ОС </t>
-  </si>
-  <si>
-    <t xml:space="preserve">заместитель начальника ОС </t>
-  </si>
-  <si>
-    <t xml:space="preserve">начальник СНТБ  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ведущий инженер СНТБ  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Общая оценка: </t>
   </si>
   <si>
@@ -485,15 +455,6 @@
     <t>Заместитель главного инженера по эксплуатации</t>
   </si>
   <si>
-    <t xml:space="preserve">Начальник ОС </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заместитель начальника ОС </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Начальник СНТБ  </t>
-  </si>
-  <si>
     <t>/Деев А. П./</t>
   </si>
   <si>
@@ -509,25 +470,70 @@
     <t>/Могильников Ю. Д./</t>
   </si>
   <si>
-    <t>главный инженер Деев А. П.</t>
-  </si>
-  <si>
-    <t>заместитель главного инженера по эксплуатации Алексеев В. Г.</t>
-  </si>
-  <si>
-    <t>начальник ОС Цирлин С. Л.</t>
-  </si>
-  <si>
-    <t>заместитель начальника ОС Балабанов В. В.</t>
-  </si>
-  <si>
-    <t>начальник СНТБ  Могильников Ю. Д.</t>
-  </si>
-  <si>
     <t>/Попов А. А./</t>
   </si>
   <si>
-    <t>ведущий инженер СНТБ  Попов А. А.</t>
+    <t>Алексеев В. Г.</t>
+  </si>
+  <si>
+    <t>Цирлин С. Л.</t>
+  </si>
+  <si>
+    <t>Балабанов В. В.</t>
+  </si>
+  <si>
+    <t>Могильников Ю. Д.</t>
+  </si>
+  <si>
+    <t>Попов А. А.</t>
+  </si>
+  <si>
+    <t>заместитель главного инженера по эксплуатации:</t>
+  </si>
+  <si>
+    <t>начальник ОС:</t>
+  </si>
+  <si>
+    <t>заместитель начальника ОС:</t>
+  </si>
+  <si>
+    <t>главный инженер:</t>
+  </si>
+  <si>
+    <t>Деев А. П.</t>
+  </si>
+  <si>
+    <t>начальник СНТБ:</t>
+  </si>
+  <si>
+    <t>ведущий инженер СНТБ:</t>
+  </si>
+  <si>
+    <t>Место работы:</t>
+  </si>
+  <si>
+    <t>Должность:</t>
+  </si>
+  <si>
+    <t>Дата предыдущей проверки:</t>
+  </si>
+  <si>
+    <t>Оценка:</t>
+  </si>
+  <si>
+    <t>Группа по электробезопасности:</t>
+  </si>
+  <si>
+    <t>Начальник ОС</t>
+  </si>
+  <si>
+    <t>Заместитель начальника ОС</t>
+  </si>
+  <si>
+    <t>Начальник СНТБ</t>
+  </si>
+  <si>
+    <t>Ведущий инженер СНТБ</t>
   </si>
 </sst>
 </file>
@@ -694,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -718,38 +724,46 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -758,29 +772,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,8 +1087,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,116 +1101,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="A4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>163</v>
+      <c r="B6" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="11" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
-        <v>164</v>
+      <c r="B8" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
-        <v>165</v>
+      <c r="B9" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>166</v>
+      <c r="B10" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>168</v>
+      <c r="B11" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
@@ -1225,100 +1275,100 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="A20" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -1333,32 +1383,32 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="A22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="A23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1373,178 +1423,210 @@
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
+      <c r="A25" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
+      <c r="A26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="31" t="s">
+      <c r="A27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
+      <c r="A29" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="J31" s="33"/>
+      <c r="A31" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+        <v>141</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="J33" s="33"/>
+      <c r="B33" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="J34" s="33"/>
+      <c r="B34" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="J35" s="33"/>
+      <c r="B35" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="J36" s="33"/>
+      <c r="B36" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
+      <c r="A39" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="48">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A25:J25"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="F39:H39"/>
@@ -1561,33 +1643,6 @@
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:J16"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
@@ -1601,8 +1656,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,117 +1670,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="A4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>162</v>
+      <c r="B6" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
-        <v>163</v>
+      <c r="B8" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="11" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
-        <v>164</v>
+      <c r="B9" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>165</v>
+      <c r="B10" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>166</v>
+      <c r="B11" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
@@ -1739,100 +1844,100 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="A20" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -1847,32 +1952,32 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="A22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="A23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1887,192 +1992,202 @@
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
+      <c r="A25" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
+      <c r="A26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="31" t="s">
+      <c r="A27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
+      <c r="A29" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="J31" s="33"/>
+      <c r="A31" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+        <v>141</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="J33" s="33"/>
+      <c r="A33" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="J34" s="33"/>
+      <c r="B34" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="J35" s="33"/>
+      <c r="B35" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="J36" s="33"/>
+      <c r="B36" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
+      <c r="A39" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A33:E33"/>
+  <mergeCells count="48">
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:J18"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:J19"/>
@@ -2085,24 +2200,19 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:J39"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
@@ -2114,7 +2224,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,1068 +2240,1068 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2">
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2">
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>4</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2">
         <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2">
         <v>4</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2">
         <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2">
         <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2">
         <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2">
         <v>4</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2">
         <v>4</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D34" s="2">
         <v>3</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2">
         <v>4</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
         <v>4</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D37" s="2">
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D38" s="2">
         <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D39" s="2">
         <v>4</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>4</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D41" s="2">
         <v>4</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
